--- a/protocol/BLE_CAR_通信协议V1.0.0.xlsx
+++ b/protocol/BLE_CAR_通信协议V1.0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
   <si>
     <t>APP发送连接密码指令</t>
   </si>
@@ -122,53 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0xA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR右转弯指令
-DC=A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>右转弯角度结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,25 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAR左转弯指令
-DC=A4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左转弯角度结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAR停止指令
-DC=A5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,17 +228,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CAR停止指令
+DC=A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR停止指令
+DC=A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR停止指令
+DC=A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor回复CAR左转弯指令
+DC=A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR左转弯指令
+DC=A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor回复CAR右转弯指令
+DC=A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR右转弯指令
+DC=A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>获取CAR当前的方向以及速度级别
 DC=A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Sensor回复获取CAR当前的方向以及速度级别
+DC=A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC校验错误指令
+DC = A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC校验错误指令
+DC = A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>获取CAR当前的方向以及速度级别
+DC=A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAR右转弯指令
 DC=A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sensor回复连接</t>
+    <t>CAR左转弯指令
+DC=A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -891,6 +914,90 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,6 +1007,46 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -912,11 +1059,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -941,168 +1138,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1126,6 +1161,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1424,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:M119"/>
+  <dimension ref="B8:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M52" activeCellId="1" sqref="L46 M52"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1441,53 +1544,53 @@
   <sheetData>
     <row r="8" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>49</v>
+      <c r="B9" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66" t="s">
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="62" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="19"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="67"/>
+        <v>41</v>
+      </c>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1511,9 +1614,9 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="19"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="22"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1629,7 @@
       <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="21">
         <v>1</v>
       </c>
       <c r="J12" s="4">
@@ -1537,9 +1640,9 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="22"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1547,37 +1650,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>46</v>
+      <c r="I13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="68"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1588,9 +1691,9 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="55" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="37" t="s">
@@ -1602,18 +1705,18 @@
       <c r="G16" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40" t="s">
+      <c r="I16" s="27"/>
+      <c r="J16" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="35"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -1623,12 +1726,12 @@
       <c r="I17" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="9" t="s">
         <v>7</v>
       </c>
@@ -1649,9 +1752,9 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="19"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="35"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
@@ -1672,9 +1775,9 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="35"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
@@ -1695,20 +1798,20 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1719,488 +1822,123 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="19"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="19"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="19"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="19"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="61" t="s">
+      <c r="D26" s="60"/>
+      <c r="E26" s="66" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="54"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-    </row>
-    <row r="32" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B33" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B34" s="19"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="67"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B35" s="19"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B36" s="19"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B37" s="19"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="19"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B40" s="19"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B41" s="19"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K41" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="71"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B42" s="19"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B43" s="19"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4">
-        <v>1</v>
-      </c>
-      <c r="K43" s="4">
-        <v>1</v>
-      </c>
-      <c r="L43" s="4">
-        <v>1</v>
-      </c>
-      <c r="M43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B44" s="19"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I44" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="19"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="68"/>
-    </row>
-    <row r="46" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="19"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B47" s="19"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="46"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B48" s="19"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="48"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B49" s="19"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="52"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B50" s="19"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="57"/>
-    </row>
-    <row r="51" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="20"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="60"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
     </row>
     <row r="55" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B56" s="18" t="s">
-        <v>31</v>
+      <c r="B56" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="24" t="s">
+      <c r="D56" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H56" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="30" t="s">
+      <c r="I56" s="73"/>
+      <c r="J56" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="19"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="27"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J57" s="31"/>
+        <v>38</v>
+      </c>
+      <c r="J57" s="75"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="19"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="22"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="5" t="s">
         <v>7</v>
       </c>
@@ -2221,9 +1959,9 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="19"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="5" t="s">
         <v>9</v>
       </c>
@@ -2244,9 +1982,9 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="19"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="22"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="5" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +1995,7 @@
         <v>22</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I60" s="14" t="s">
         <v>13</v>
@@ -2267,20 +2005,20 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="19"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="33"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
     </row>
     <row r="62" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="19"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2291,10 +2029,10 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B63" s="19"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="34" t="s">
-        <v>15</v>
+      <c r="D63" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="E63" s="37" t="s">
         <v>1</v>
@@ -2305,18 +2043,18 @@
       <c r="G63" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H63" s="39" t="s">
+      <c r="H63" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40" t="s">
+      <c r="I63" s="27"/>
+      <c r="J63" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="19"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="35"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="38"/>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -2324,14 +2062,14 @@
         <v>6</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J64" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="J64" s="65"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B65" s="19"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="35"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="9" t="s">
         <v>7</v>
       </c>
@@ -2352,9 +2090,9 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B66" s="19"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="35"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="9" t="s">
         <v>9</v>
       </c>
@@ -2375,9 +2113,9 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="19"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="35"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="9" t="s">
         <v>10</v>
       </c>
@@ -2388,7 +2126,7 @@
         <v>16</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>23</v>
@@ -2398,20 +2136,20 @@
       </c>
     </row>
     <row r="68" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="19"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="36"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="33"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
     </row>
     <row r="69" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="19"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2422,123 +2160,123 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="19"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="44"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="46"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B71" s="19"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="48"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="34"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="19"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="51" t="s">
+      <c r="F72" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="52"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="45"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="19"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="53" t="s">
-        <v>35</v>
+      <c r="D73" s="60"/>
+      <c r="E73" s="69" t="s">
+        <v>30</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="57"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="48"/>
     </row>
     <row r="74" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="20"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="54"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="67"/>
       <c r="F74" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="58" t="s">
+      <c r="G74" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="60"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="51"/>
     </row>
     <row r="77" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B78" s="18" t="s">
-        <v>36</v>
+      <c r="B78" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="24" t="s">
+      <c r="D78" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="28" t="s">
+      <c r="H78" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="I78" s="29"/>
-      <c r="J78" s="30" t="s">
+      <c r="I78" s="73"/>
+      <c r="J78" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B79" s="19"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="27"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="71"/>
       <c r="H79" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J79" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="J79" s="75"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B80" s="19"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="22"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2559,9 +2297,9 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B81" s="19"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="22"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="5" t="s">
         <v>9</v>
       </c>
@@ -2582,9 +2320,9 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B82" s="19"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="22"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="5" t="s">
         <v>10</v>
       </c>
@@ -2595,7 +2333,7 @@
         <v>22</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I82" s="14" t="s">
         <v>13</v>
@@ -2605,20 +2343,20 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="19"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="23"/>
+      <c r="D83" s="54"/>
       <c r="E83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="33"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
     </row>
     <row r="84" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="19"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2629,10 +2367,10 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B85" s="19"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="34" t="s">
-        <v>15</v>
+      <c r="D85" s="55" t="s">
+        <v>55</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>1</v>
@@ -2643,18 +2381,18 @@
       <c r="G85" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="39"/>
-      <c r="J85" s="40" t="s">
+      <c r="I85" s="27"/>
+      <c r="J85" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B86" s="19"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="35"/>
+      <c r="D86" s="56"/>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -2662,14 +2400,14 @@
         <v>6</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J86" s="41"/>
+        <v>31</v>
+      </c>
+      <c r="J86" s="65"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B87" s="19"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="35"/>
+      <c r="D87" s="56"/>
       <c r="E87" s="9" t="s">
         <v>7</v>
       </c>
@@ -2690,9 +2428,9 @@
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B88" s="19"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="35"/>
+      <c r="D88" s="56"/>
       <c r="E88" s="9" t="s">
         <v>9</v>
       </c>
@@ -2713,9 +2451,9 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B89" s="19"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="35"/>
+      <c r="D89" s="56"/>
       <c r="E89" s="9" t="s">
         <v>10</v>
       </c>
@@ -2726,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>23</v>
@@ -2736,20 +2474,20 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="19"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="36"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="33"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="43"/>
     </row>
     <row r="91" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="19"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2760,460 +2498,1034 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B92" s="19"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="44"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="46"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B93" s="19"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="48"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="34"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B94" s="19"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="51" t="s">
+      <c r="F94" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="51"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="51"/>
-      <c r="J94" s="52"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="45"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B95" s="19"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="53" t="s">
-        <v>39</v>
+      <c r="D95" s="60"/>
+      <c r="E95" s="69" t="s">
+        <v>31</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="55" t="s">
+      <c r="G95" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H95" s="56"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="57"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="48"/>
     </row>
     <row r="96" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="20"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="54"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="67"/>
       <c r="F96" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="58" t="s">
+      <c r="G96" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="60"/>
-    </row>
-    <row r="100" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B101" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F101" s="24" t="s">
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="51"/>
+    </row>
+    <row r="101" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B102" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="26" t="s">
+      <c r="G102" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="28" t="s">
+      <c r="H102" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="29"/>
-      <c r="J101" s="30" t="s">
+      <c r="I102" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B102" s="19"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="3" t="s">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B103" s="40"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J102" s="31"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B103" s="19"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="5" t="s">
+      <c r="I103" s="63"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B104" s="40"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B104" s="19"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="5" t="s">
+      <c r="F104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B105" s="40"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F105" s="4">
         <v>2</v>
       </c>
-      <c r="G104" s="4">
-        <v>1</v>
-      </c>
-      <c r="H104" s="4">
-        <v>1</v>
-      </c>
-      <c r="I104" s="4">
-        <v>1</v>
-      </c>
-      <c r="J104" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B105" s="19"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="5" t="s">
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4">
+        <v>1</v>
+      </c>
+      <c r="I105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B106" s="40"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F106" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G105" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I105" s="14" t="s">
+      <c r="G106" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I106" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J105" s="14" t="s">
+    </row>
+    <row r="107" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="40"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="40"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B109" s="40"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B110" s="40"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L110" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M110" s="26"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B111" s="40"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B112" s="40"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1</v>
+      </c>
+      <c r="L112" s="4">
+        <v>1</v>
+      </c>
+      <c r="M112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B113" s="40"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="19"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="6" t="s">
+      <c r="L113" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M113" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="40"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="33"/>
-    </row>
-    <row r="107" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="19"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B108" s="19"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="37" t="s">
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="29"/>
+    </row>
+    <row r="115" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="40"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B116" s="40"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="30"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="32"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B117" s="40"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="34"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B118" s="40"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="45"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B119" s="40"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="48"/>
+    </row>
+    <row r="120" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="41"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" s="50"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="51"/>
+    </row>
+    <row r="122" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B123" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G108" s="37" t="s">
+      <c r="G123" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H108" s="39" t="s">
+      <c r="H123" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="I108" s="39"/>
-      <c r="J108" s="40" t="s">
+      <c r="I123" s="73"/>
+      <c r="J123" s="74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B109" s="19"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="9" t="s">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B124" s="40"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="53"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I109" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B110" s="19"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="9" t="s">
+      <c r="I124" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J124" s="75"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B125" s="40"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B111" s="19"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="9" t="s">
+      <c r="F125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B126" s="40"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F126" s="4">
         <v>2</v>
       </c>
-      <c r="G111" s="4">
-        <v>1</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1</v>
-      </c>
-      <c r="J111" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B112" s="19"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="9" t="s">
+      <c r="G126" s="4">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4">
+        <v>1</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1</v>
+      </c>
+      <c r="J126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B127" s="40"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F127" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G127" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="40"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="42"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="43"/>
+    </row>
+    <row r="129" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="40"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B130" s="40"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G130" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130" s="27"/>
+      <c r="J130" s="64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B131" s="40"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J131" s="65"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B132" s="40"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B133" s="40"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2</v>
+      </c>
+      <c r="G133" s="4">
+        <v>1</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1</v>
+      </c>
+      <c r="J133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B134" s="40"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H112" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I112" s="14" t="s">
+      <c r="H134" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I134" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J112" s="14" t="s">
+      <c r="J134" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="19"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="10" t="s">
+    <row r="135" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="40"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="33"/>
-    </row>
-    <row r="114" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="19"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B115" s="19"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="42" t="s">
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="43"/>
+    </row>
+    <row r="136" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="40"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B137" s="40"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E115" s="44"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="46"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B116" s="19"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="48"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B117" s="19"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="49" t="s">
+      <c r="E137" s="30"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="32"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B138" s="40"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="34"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B139" s="40"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F117" s="51" t="s">
+      <c r="F139" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="51"/>
-      <c r="J117" s="52"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B118" s="19"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F118" s="11" t="s">
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="45"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B140" s="40"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="55" t="s">
+      <c r="G140" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="H118" s="56"/>
-      <c r="I118" s="56"/>
-      <c r="J118" s="57"/>
-    </row>
-    <row r="119" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="20"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="12" t="s">
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="48"/>
+    </row>
+    <row r="141" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="41"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G119" s="58" t="s">
+      <c r="G141" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H119" s="59"/>
-      <c r="I119" s="59"/>
-      <c r="J119" s="60"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="51"/>
+    </row>
+    <row r="146" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G147" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B148" s="40"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" s="63"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B149" s="40"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="53"/>
+      <c r="E149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B150" s="40"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="4">
+        <v>2</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1</v>
+      </c>
+      <c r="H150" s="4">
+        <v>1</v>
+      </c>
+      <c r="I150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B151" s="40"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I151" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="40"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="29"/>
+    </row>
+    <row r="153" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="40"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B154" s="40"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="30"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="31"/>
+      <c r="J154" s="32"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B155" s="40"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="59"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="33"/>
+      <c r="J155" s="34"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B156" s="40"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
+      <c r="I156" s="44"/>
+      <c r="J156" s="45"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B157" s="40"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" s="47"/>
+      <c r="I157" s="47"/>
+      <c r="J157" s="48"/>
+    </row>
+    <row r="158" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="41"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" s="50"/>
+      <c r="I158" s="50"/>
+      <c r="J158" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="F45:M45"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B9:B27"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="B33:B51"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:J48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
+  <mergeCells count="122">
+    <mergeCell ref="B147:B158"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:J155"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="F156:J156"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="G157:J157"/>
+    <mergeCell ref="G158:J158"/>
+    <mergeCell ref="F152:I152"/>
+    <mergeCell ref="B123:B141"/>
+    <mergeCell ref="D123:D128"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="F128:J128"/>
+    <mergeCell ref="D130:D135"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:J131"/>
+    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:J138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="F139:J139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="G140:J140"/>
+    <mergeCell ref="G141:J141"/>
+    <mergeCell ref="B78:B96"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="D85:D90"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:J93"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:J96"/>
     <mergeCell ref="B56:B74"/>
     <mergeCell ref="D56:D61"/>
     <mergeCell ref="E56:E57"/>
@@ -3236,50 +3548,48 @@
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="G73:J73"/>
     <mergeCell ref="G74:J74"/>
-    <mergeCell ref="B78:B96"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="D85:D90"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="F90:J90"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:J93"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="B101:B119"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="D108:D113"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:J116"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="F117:J117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="B102:B120"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="D109:D114"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:J117"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="E119:E120"/>
     <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J120"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="H109:L109"/>
+    <mergeCell ref="F114:M114"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B9:B27"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
